--- a/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7129,7 +7129,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8146</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3672</v>
+        <v>3719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14061</v>
+        <v>14448</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02983812196879028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01345026578603148</v>
+        <v>0.01362100889546914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05150438460500765</v>
+        <v>0.05292092745947881</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>11662</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5924</v>
+        <v>6106</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19946</v>
+        <v>19524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04470820266305445</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02271231164972759</v>
+        <v>0.02340764794299823</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07646817146432942</v>
+        <v>0.07484925674556485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>19808</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11979</v>
+        <v>11846</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29100</v>
+        <v>29783</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03710364181235503</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02243969768738056</v>
+        <v>0.02218982837780799</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05451022019800153</v>
+        <v>0.05578929860742247</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>264864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258949</v>
+        <v>258562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269338</v>
+        <v>269291</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9701618780312097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9484956153949924</v>
+        <v>0.9470790725405215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9865497342139685</v>
+        <v>0.9863789911045309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -836,19 +836,19 @@
         <v>249176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240892</v>
+        <v>241314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254914</v>
+        <v>254732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9552917973369456</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9235318285356693</v>
+        <v>0.9251507432544351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9772876883502721</v>
+        <v>0.9765923520570018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>496</v>
@@ -857,19 +857,19 @@
         <v>514040</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504748</v>
+        <v>504065</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>521869</v>
+        <v>522002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.962896358187645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9454897798019983</v>
+        <v>0.9442107013925773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9775603023126195</v>
+        <v>0.977810171622192</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1896</v>
+        <v>1951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12002</v>
+        <v>11124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0102742149109085</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003845848269975732</v>
+        <v>0.003957098017256042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0243419117049271</v>
+        <v>0.02256146135871205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>28772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20139</v>
+        <v>20167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40605</v>
+        <v>41265</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0570935637910967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03996254140701035</v>
+        <v>0.0400180667786421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08057449624840778</v>
+        <v>0.08188387318574722</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1003,19 +1003,19 @@
         <v>33838</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23143</v>
+        <v>23251</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46564</v>
+        <v>46594</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03393920476412063</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02321189348814756</v>
+        <v>0.02331996430220958</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04670333748100569</v>
+        <v>0.0467333280498563</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>488009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481073</v>
+        <v>481951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491179</v>
+        <v>491124</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9897257850890915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9756580882950727</v>
+        <v>0.9774385386412879</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961541517300242</v>
+        <v>0.9960429019827439</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>471</v>
@@ -1053,19 +1053,19 @@
         <v>475177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463344</v>
+        <v>462684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483810</v>
+        <v>483782</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9429064362089032</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9194255037515922</v>
+        <v>0.9181161268142528</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9600374585929896</v>
+        <v>0.9599819332213578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>931</v>
@@ -1074,19 +1074,19 @@
         <v>963186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>950460</v>
+        <v>950430</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973881</v>
+        <v>973773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9660607952358794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9532966625189944</v>
+        <v>0.9532666719501438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9767881065118524</v>
+        <v>0.9766800356977905</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9643</v>
+        <v>9537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01210469638608631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003057070603037935</v>
+        <v>0.003018119321959875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03024465481587466</v>
+        <v>0.02991097031510943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>7806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3706</v>
+        <v>3788</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14469</v>
+        <v>15190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02327180106267253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01104802469172872</v>
+        <v>0.01129292276777631</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04313815435736475</v>
+        <v>0.04528673033850408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>11665</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6603</v>
+        <v>6050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18916</v>
+        <v>19325</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01782962665947878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01009236772201747</v>
+        <v>0.009246698740484378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02891254500418787</v>
+        <v>0.02953703594424732</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>314986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309203</v>
+        <v>309309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317871</v>
+        <v>317884</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9878953036139136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9697553451841254</v>
+        <v>0.9700890296848906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969429293969621</v>
+        <v>0.9969818806780401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>327</v>
@@ -1270,19 +1270,19 @@
         <v>327606</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320943</v>
+        <v>320222</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331706</v>
+        <v>331624</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9767281989373274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9568618456426351</v>
+        <v>0.9547132696614958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9889519753082712</v>
+        <v>0.9887070772322237</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>633</v>
@@ -1291,19 +1291,19 @@
         <v>642593</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635342</v>
+        <v>634933</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647655</v>
+        <v>648208</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9821703733405213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9710874549958119</v>
+        <v>0.9704629640557528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9899076322779825</v>
+        <v>0.9907533012595158</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>7191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2766</v>
+        <v>3317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13696</v>
+        <v>15353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02004895876673453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007712741272053647</v>
+        <v>0.009248147857835736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03818531462181057</v>
+        <v>0.04280472983059332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1416,19 +1416,19 @@
         <v>15298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9429</v>
+        <v>9366</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24209</v>
+        <v>23809</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04118473996194195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02538289803341847</v>
+        <v>0.02521310492571303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06517331036967369</v>
+        <v>0.06409656352292091</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1437,19 +1437,19 @@
         <v>22489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14399</v>
+        <v>14645</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32829</v>
+        <v>33378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03080189787498359</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01972176790062743</v>
+        <v>0.02005821172776675</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04496340390680977</v>
+        <v>0.04571489351526774</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>351480</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344975</v>
+        <v>343318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355905</v>
+        <v>355354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9799510412332655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9618146853781894</v>
+        <v>0.9571952701694065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922872587279463</v>
+        <v>0.9907518521421642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -1487,19 +1487,19 @@
         <v>356158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347247</v>
+        <v>347647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362027</v>
+        <v>362090</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9588152600380581</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9348266896303262</v>
+        <v>0.9359034364770791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9746171019665814</v>
+        <v>0.974786895074287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>723</v>
@@ -1508,19 +1508,19 @@
         <v>707638</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697298</v>
+        <v>696749</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>715728</v>
+        <v>715482</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9691981021250164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9550365960931902</v>
+        <v>0.9542851064847322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9802782320993725</v>
+        <v>0.9799417882722333</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8869</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3975</v>
+        <v>3400</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16680</v>
+        <v>16873</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04362219350385469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01955169026483079</v>
+        <v>0.01672144760776631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08204374292855131</v>
+        <v>0.08299169500317258</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>20918</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13116</v>
+        <v>12314</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31574</v>
+        <v>31701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1007273923466148</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06315614096338865</v>
+        <v>0.05929498029480917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1520409207771777</v>
+        <v>0.1526537423080496</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1654,19 +1654,19 @@
         <v>29787</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20073</v>
+        <v>20177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42244</v>
+        <v>42655</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.072477701139308</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04884309393802617</v>
+        <v>0.04909419977756126</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.102789296347791</v>
+        <v>0.1037904698283938</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>194439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186628</v>
+        <v>186435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199333</v>
+        <v>199908</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9563778064961453</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9179562570714486</v>
+        <v>0.9170083049968275</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9804483097351689</v>
+        <v>0.9832785523922337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>179</v>
@@ -1704,19 +1704,19 @@
         <v>186750</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176094</v>
+        <v>175967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>194552</v>
+        <v>195354</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8992726076533851</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8479590792228222</v>
+        <v>0.8473462576919503</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9368438590366114</v>
+        <v>0.9407050197051908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>377</v>
@@ -1725,19 +1725,19 @@
         <v>381189</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>368732</v>
+        <v>368321</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>390903</v>
+        <v>390799</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.927522298860692</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8972107036522092</v>
+        <v>0.8962095301716062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9511569060619741</v>
+        <v>0.9509058002224386</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5655</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1907</v>
+        <v>1945</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11556</v>
+        <v>11202</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02088202970854509</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007041234046099435</v>
+        <v>0.007180485892403669</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04267079037833317</v>
+        <v>0.0413631411365677</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1850,19 +1850,19 @@
         <v>10281</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5215</v>
+        <v>5157</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17622</v>
+        <v>17876</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03696143731648211</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01874859193324935</v>
+        <v>0.01854121065961293</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06335620992973458</v>
+        <v>0.06426747964226223</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1871,19 +1871,19 @@
         <v>15936</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9439</v>
+        <v>8798</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25481</v>
+        <v>25534</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02902912868229306</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01719376690822241</v>
+        <v>0.01602739739529966</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0464170167140214</v>
+        <v>0.04651394641393525</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>265156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259255</v>
+        <v>259609</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268904</v>
+        <v>268866</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9791179702914549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9573292096216668</v>
+        <v>0.9586368588634325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9929587659539005</v>
+        <v>0.9928195141075964</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -1921,19 +1921,19 @@
         <v>267863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260522</v>
+        <v>260268</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272929</v>
+        <v>272987</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9630385626835178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9366437900702655</v>
+        <v>0.9357325203577386</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9812514080667507</v>
+        <v>0.9814587893403871</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>520</v>
@@ -1942,19 +1942,19 @@
         <v>533019</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>523474</v>
+        <v>523421</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>539516</v>
+        <v>540157</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.970970871317707</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9535829832859775</v>
+        <v>0.9534860535860646</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9828062330917775</v>
+        <v>0.9839726026047003</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>25198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16698</v>
+        <v>16195</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36351</v>
+        <v>36326</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04096975981330112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02714990435633272</v>
+        <v>0.02633291849505182</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05910395778557657</v>
+        <v>0.05906373353919547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2067,19 +2067,19 @@
         <v>24285</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15804</v>
+        <v>16144</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34575</v>
+        <v>35283</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03805182131223937</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02476288696953748</v>
+        <v>0.02529573021896943</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05417451779808392</v>
+        <v>0.05528413267599645</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -2088,19 +2088,19 @@
         <v>49483</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36203</v>
+        <v>36531</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>64724</v>
+        <v>64901</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03948379150274328</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02888750467470468</v>
+        <v>0.02914917085353851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05164515360858728</v>
+        <v>0.05178615417487953</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>589829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>578676</v>
+        <v>578701</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>598329</v>
+        <v>598832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9590302401866989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9408960422144231</v>
+        <v>0.9409362664608044</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9728500956436671</v>
+        <v>0.9736670815049481</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>597</v>
@@ -2138,19 +2138,19 @@
         <v>613934</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>603644</v>
+        <v>602936</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>622415</v>
+        <v>622075</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9619481786877606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9458254822019161</v>
+        <v>0.9447158673240033</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9752371130304626</v>
+        <v>0.9747042697810304</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1170</v>
@@ -2159,19 +2159,19 @@
         <v>1203763</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1188522</v>
+        <v>1188345</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1217043</v>
+        <v>1216715</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9605162084972567</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9483548463914128</v>
+        <v>0.9482138458251205</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9711124953252958</v>
+        <v>0.9708508291464615</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>31309</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22104</v>
+        <v>22386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42353</v>
+        <v>43765</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04215064218217417</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02975820452110987</v>
+        <v>0.03013845338149992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05702031672449063</v>
+        <v>0.05892144050162227</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -2284,19 +2284,19 @@
         <v>52510</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38049</v>
+        <v>37699</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66998</v>
+        <v>67250</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06701915077039723</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04856254827618571</v>
+        <v>0.04811565774606746</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0855104448736738</v>
+        <v>0.08583193777841938</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -2305,19 +2305,19 @@
         <v>83819</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67321</v>
+        <v>66317</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101721</v>
+        <v>101814</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05491674639235831</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04410738181258889</v>
+        <v>0.0434497156295997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0666457745913205</v>
+        <v>0.06670669147651753</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>711468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>700424</v>
+        <v>699012</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>720673</v>
+        <v>720391</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9578493578178259</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9429796832755091</v>
+        <v>0.9410785594983776</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9702417954788901</v>
+        <v>0.9698615466185001</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>697</v>
@@ -2355,19 +2355,19 @@
         <v>731001</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>716513</v>
+        <v>716261</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>745462</v>
+        <v>745812</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9329808492296028</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9144895551263262</v>
+        <v>0.9141680622215806</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9514374517238143</v>
+        <v>0.9518843422539326</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1398</v>
@@ -2376,19 +2376,19 @@
         <v>1442469</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1424567</v>
+        <v>1424474</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1458967</v>
+        <v>1459971</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9450832536076417</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9333542254086793</v>
+        <v>0.9332933085234825</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9558926181874111</v>
+        <v>0.9565502843704002</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>95292</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0290922633861063</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>164</v>
@@ -2501,19 +2501,19 @@
         <v>171532</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05076114029983908</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>262</v>
@@ -2522,19 +2522,19 @@
         <v>266824</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04009548868701666</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3180233</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3159557</v>
+        <v>3159583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3197632</v>
+        <v>3197542</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9709077366138937</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9645956196524064</v>
+        <v>0.9646036627397565</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.976219672539021</v>
+        <v>0.9761922068903786</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3133</v>
@@ -2572,19 +2572,19 @@
         <v>3207665</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3178436</v>
+        <v>3179803</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3231902</v>
+        <v>3230964</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.949238859700161</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9405892438088574</v>
+        <v>0.9409937514635676</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9564111331752407</v>
+        <v>0.9561335681707499</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6248</v>
@@ -2593,19 +2593,19 @@
         <v>6387898</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6353683</v>
+        <v>6353760</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6417025</v>
+        <v>6419672</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9599045113129834</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9547630770469275</v>
+        <v>0.9547747027330119</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.964281394165911</v>
+        <v>0.964679156827273</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>5833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1972</v>
+        <v>1957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13830</v>
+        <v>12850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02009801352177329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00679449747483972</v>
+        <v>0.006743921510793868</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04765506951494532</v>
+        <v>0.04427927817756411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2962,19 +2962,19 @@
         <v>10349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5251</v>
+        <v>5088</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20497</v>
+        <v>19920</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03691554011265654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0187302282061582</v>
+        <v>0.01814911237514305</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0731145115776021</v>
+        <v>0.07105422086878453</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2983,19 +2983,19 @@
         <v>16182</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9136</v>
+        <v>9138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26354</v>
+        <v>26981</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0283614531526185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01601292930043405</v>
+        <v>0.01601681146998593</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04619083435570243</v>
+        <v>0.04728991594158834</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>284370</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276373</v>
+        <v>277353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288231</v>
+        <v>288246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9799019864782267</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9523449304850546</v>
+        <v>0.9557207218224378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9932055025251603</v>
+        <v>0.9932560784892062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -3033,19 +3033,19 @@
         <v>269994</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259846</v>
+        <v>260423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>275092</v>
+        <v>275255</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9630844598873435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9268854884223978</v>
+        <v>0.9289457791312155</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812697717938418</v>
+        <v>0.9818508876248569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>514</v>
@@ -3054,19 +3054,19 @@
         <v>554364</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>544192</v>
+        <v>543565</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561410</v>
+        <v>561408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9716385468473815</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9538091656442976</v>
+        <v>0.952710084058412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9839870706995663</v>
+        <v>0.9839831885300141</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>14725</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7782</v>
+        <v>7425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26265</v>
+        <v>27252</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02912834965299866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01539390775912539</v>
+        <v>0.01468727225609141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05195622080851352</v>
+        <v>0.05390882725511407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3179,19 +3179,19 @@
         <v>26788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18015</v>
+        <v>18327</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38270</v>
+        <v>38821</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05124600927246532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03446294240521805</v>
+        <v>0.03505942089801035</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07321174474950513</v>
+        <v>0.07426504261175799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -3200,19 +3200,19 @@
         <v>41513</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29785</v>
+        <v>29799</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58013</v>
+        <v>57136</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04037220190942933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02896680585269668</v>
+        <v>0.02898040089747574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05641845325043825</v>
+        <v>0.05556589565865757</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>490802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479262</v>
+        <v>478275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497745</v>
+        <v>498102</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9708716503470013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9480437791914865</v>
+        <v>0.9460911727448859</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9846060922408745</v>
+        <v>0.9853127277439085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>454</v>
@@ -3250,19 +3250,19 @@
         <v>495943</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>484461</v>
+        <v>483910</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>504716</v>
+        <v>504404</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9487539907275346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9267882552504949</v>
+        <v>0.9257349573882422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9655370575947819</v>
+        <v>0.9649405791019897</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>915</v>
@@ -3271,19 +3271,19 @@
         <v>986745</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>970245</v>
+        <v>971122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>998473</v>
+        <v>998459</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9596277980905706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9435815467495616</v>
+        <v>0.9444341043413423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9710331941473033</v>
+        <v>0.9710195991025242</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>5098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1993</v>
+        <v>2018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10434</v>
+        <v>11188</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01577853900759522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006166840722145607</v>
+        <v>0.006245344307216016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03229296057822952</v>
+        <v>0.03462591704120525</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3396,19 +3396,19 @@
         <v>20196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12612</v>
+        <v>12475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29796</v>
+        <v>31001</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05922377623345857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03698345817150558</v>
+        <v>0.03658256819550814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08737239431499552</v>
+        <v>0.09090710824203306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -3417,19 +3417,19 @@
         <v>25295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17132</v>
+        <v>16305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36056</v>
+        <v>36159</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03808675968682423</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02579606505573368</v>
+        <v>0.02455095669760561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05429032576353632</v>
+        <v>0.05444444484864158</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>318018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312682</v>
+        <v>311928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321123</v>
+        <v>321098</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9842214609924048</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9677070394217705</v>
+        <v>0.9653740829587948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9938331592778544</v>
+        <v>0.993754655692784</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -3467,19 +3467,19 @@
         <v>320824</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311224</v>
+        <v>310019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328408</v>
+        <v>328545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9407762237665415</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9126276056850046</v>
+        <v>0.9090928917579673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9630165418284945</v>
+        <v>0.9634174318044919</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>611</v>
@@ -3488,19 +3488,19 @@
         <v>638841</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628080</v>
+        <v>627977</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647004</v>
+        <v>647831</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9619132403131758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9457096742364637</v>
+        <v>0.9455555551513585</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9742039349442664</v>
+        <v>0.9754490433023945</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>12341</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5845</v>
+        <v>6842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21542</v>
+        <v>22158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0329991117847428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01563030135731255</v>
+        <v>0.01829450623969057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05760120941562072</v>
+        <v>0.05924815158896227</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -3613,19 +3613,19 @@
         <v>28512</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19796</v>
+        <v>18683</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40326</v>
+        <v>40038</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07368791096187968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05116224756936854</v>
+        <v>0.04828531384005186</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1042178256130502</v>
+        <v>0.1034752265700755</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -3634,19 +3634,19 @@
         <v>40854</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30140</v>
+        <v>29737</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54055</v>
+        <v>54023</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05368982945385599</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03961060925564747</v>
+        <v>0.03907985923720091</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07103882063186599</v>
+        <v>0.07099772046202511</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>361641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352440</v>
+        <v>351824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368137</v>
+        <v>367140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9670008882152572</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9423987905843793</v>
+        <v>0.9407518484110371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9843696986426873</v>
+        <v>0.9817054937603095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -3684,19 +3684,19 @@
         <v>358423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346609</v>
+        <v>346897</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367139</v>
+        <v>368252</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9263120890381203</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8957821743869494</v>
+        <v>0.8965247734299245</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9488377524306312</v>
+        <v>0.9517146861599481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>674</v>
@@ -3705,19 +3705,19 @@
         <v>720063</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>706862</v>
+        <v>706894</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>730777</v>
+        <v>731180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.946310170546144</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.928961179368134</v>
+        <v>0.9290022795379745</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9603893907443526</v>
+        <v>0.9609201407627987</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>8009</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3417</v>
+        <v>3384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15662</v>
+        <v>15156</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03766680780418378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01607232377531601</v>
+        <v>0.01591478224482926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07366160714686715</v>
+        <v>0.07128368916676132</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -3830,19 +3830,19 @@
         <v>21697</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12712</v>
+        <v>14048</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32033</v>
+        <v>31510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09880776713412434</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05788814705742981</v>
+        <v>0.0639715774658903</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1458775464722077</v>
+        <v>0.1434944572488812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3851,19 +3851,19 @@
         <v>29706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20023</v>
+        <v>20691</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42071</v>
+        <v>41242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06873049036835112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04632750527306547</v>
+        <v>0.04787284054697215</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09733838736926065</v>
+        <v>0.0954224254804892</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>204609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196956</v>
+        <v>197462</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209201</v>
+        <v>209234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9623331921958163</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9263383928531329</v>
+        <v>0.9287163108332387</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.983927676224684</v>
+        <v>0.9840852177551708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -3901,19 +3901,19 @@
         <v>197894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187558</v>
+        <v>188081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206879</v>
+        <v>205543</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9011922328658757</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8541224535277919</v>
+        <v>0.8565055427511181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.94211185294257</v>
+        <v>0.936028422534109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>380</v>
@@ -3922,19 +3922,19 @@
         <v>402503</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390138</v>
+        <v>390967</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412186</v>
+        <v>411518</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9312695096316489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9026616126307395</v>
+        <v>0.9045775745195108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9536724947269347</v>
+        <v>0.9521271594530278</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>6269</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2091</v>
+        <v>2123</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13033</v>
+        <v>12510</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02288209742614849</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007633202616403141</v>
+        <v>0.007749299919502497</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04756979577515607</v>
+        <v>0.04565958536741221</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4047,19 +4047,19 @@
         <v>16308</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9861</v>
+        <v>9630</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26153</v>
+        <v>24518</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05842187356035486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03532636841774585</v>
+        <v>0.03450018674013561</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09369036535053996</v>
+        <v>0.08783402745772308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -4068,19 +4068,19 @@
         <v>22577</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14458</v>
+        <v>14298</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33371</v>
+        <v>33087</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04081773848953114</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02613810756939113</v>
+        <v>0.02585020379653372</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06033226458888504</v>
+        <v>0.05981794829944453</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>267712</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260948</v>
+        <v>261471</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271890</v>
+        <v>271858</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9771179025738516</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9524302042248446</v>
+        <v>0.9543404146325875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9923667973835969</v>
+        <v>0.9922507000804975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -4118,19 +4118,19 @@
         <v>262832</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252987</v>
+        <v>254622</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>269279</v>
+        <v>269510</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9415781264396451</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.90630963464946</v>
+        <v>0.9121659725422768</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9646736315822542</v>
+        <v>0.9654998132598634</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>507</v>
@@ -4139,19 +4139,19 @@
         <v>530544</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>519750</v>
+        <v>520034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>538663</v>
+        <v>538823</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9591822615104688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9396677354111154</v>
+        <v>0.9401820517005557</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9738618924306088</v>
+        <v>0.9741497962034663</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>8451</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3947</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16791</v>
+        <v>16558</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01275111978116892</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005954432791225968</v>
+        <v>0.006034745738517423</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0253337301636306</v>
+        <v>0.02498301057662537</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4264,19 +4264,19 @@
         <v>32889</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22340</v>
+        <v>22744</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45298</v>
+        <v>45649</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04740005442875038</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03219702136789</v>
+        <v>0.03277967935373608</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06528435350682016</v>
+        <v>0.06579070520785553</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -4285,19 +4285,19 @@
         <v>41340</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28862</v>
+        <v>29471</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54977</v>
+        <v>57627</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03047228998086091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02127436691584321</v>
+        <v>0.02172349624753821</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04052460400699375</v>
+        <v>0.04247794659119613</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>654337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>645997</v>
+        <v>646230</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>658841</v>
+        <v>658788</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9872488802188311</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9746662698363692</v>
+        <v>0.975016989423375</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9940455672087739</v>
+        <v>0.9939652542614827</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>607</v>
@@ -4335,19 +4335,19 @@
         <v>660964</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>648555</v>
+        <v>648204</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>671513</v>
+        <v>671109</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9525999455712496</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9347156464931798</v>
+        <v>0.9342092947921444</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9678029786321101</v>
+        <v>0.9672203206462638</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1217</v>
@@ -4356,19 +4356,19 @@
         <v>1315301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1301664</v>
+        <v>1299014</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1327779</v>
+        <v>1327170</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9695277100191391</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9594753959930062</v>
+        <v>0.9575220534088039</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9787256330841568</v>
+        <v>0.9782765037524618</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>10603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5312</v>
+        <v>5613</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19296</v>
+        <v>21109</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01364606052928412</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006836516133723771</v>
+        <v>0.007224411756816369</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02483545535639757</v>
+        <v>0.02716805664491954</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -4481,19 +4481,19 @@
         <v>49779</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36676</v>
+        <v>37827</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65096</v>
+        <v>66298</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06059357588574722</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04464434530716646</v>
+        <v>0.04604460695295413</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07923828893944303</v>
+        <v>0.08070210801882842</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -4502,19 +4502,19 @@
         <v>60381</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46201</v>
+        <v>45936</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80091</v>
+        <v>78416</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03777401136798357</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02890266897775226</v>
+        <v>0.02873716527041192</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05010419228099815</v>
+        <v>0.04905600537815451</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>766369</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>757676</v>
+        <v>755863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>771660</v>
+        <v>771359</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9863539394707159</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9751645446436024</v>
+        <v>0.9728319433550814</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9931634838662762</v>
+        <v>0.9927755882431896</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>711</v>
@@ -4552,19 +4552,19 @@
         <v>771741</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>756424</v>
+        <v>755222</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>784844</v>
+        <v>783693</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9394064241142528</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9207617110605572</v>
+        <v>0.9192978919811713</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9553556546928337</v>
+        <v>0.9539553930470457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1416</v>
@@ -4573,19 +4573,19 @@
         <v>1538111</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1518401</v>
+        <v>1520076</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1552291</v>
+        <v>1552556</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9622259886320165</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9498958077190019</v>
+        <v>0.9509439946218455</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9710973310222477</v>
+        <v>0.9712628347295881</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>71329</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>54981</v>
+        <v>56013</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>89368</v>
+        <v>90948</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02086134644048991</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01608019389557383</v>
+        <v>0.01638187923073816</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02613706549615682</v>
+        <v>0.02659922339948654</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>191</v>
@@ -4698,19 +4698,19 @@
         <v>206519</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>176460</v>
+        <v>180158</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>235014</v>
+        <v>239379</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05825409110787749</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04977522935418879</v>
+        <v>0.05081849636731924</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06629202079529145</v>
+        <v>0.06752331356736531</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>254</v>
@@ -4719,19 +4719,19 @@
         <v>277847</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>241881</v>
+        <v>244820</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>314625</v>
+        <v>316372</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03989583198776704</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0347314749895235</v>
+        <v>0.03515344848248157</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04517671547547077</v>
+        <v>0.04542755290609819</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3347859</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3329820</v>
+        <v>3328240</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3364207</v>
+        <v>3363175</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9791386535595101</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9738629345038432</v>
+        <v>0.9734007766005135</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9839198061044262</v>
+        <v>0.9836181207692618</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3095</v>
@@ -4769,19 +4769,19 @@
         <v>3338615</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3310120</v>
+        <v>3305755</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3368674</v>
+        <v>3364976</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9417459088921225</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9337079792047086</v>
+        <v>0.9324766864326349</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9502247706458119</v>
+        <v>0.9491815036326807</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6234</v>
@@ -4790,19 +4790,19 @@
         <v>6686475</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6649697</v>
+        <v>6647950</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6722441</v>
+        <v>6719502</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.960104168012233</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9548232845245288</v>
+        <v>0.9545724470939024</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9652685250104761</v>
+        <v>0.9648465515175186</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>5885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12543</v>
+        <v>11993</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02003235650101069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006902832243660778</v>
+        <v>0.006890874212148394</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04269963983825935</v>
+        <v>0.04082521593391625</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -5159,19 +5159,19 @@
         <v>11343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5655</v>
+        <v>6021</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20823</v>
+        <v>20606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03928928944271611</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01958918755351859</v>
+        <v>0.02085423721925637</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07212556506671933</v>
+        <v>0.07137478405335701</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -5180,19 +5180,19 @@
         <v>17228</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10007</v>
+        <v>10411</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27570</v>
+        <v>27687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02957721129332066</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01717982852393005</v>
+        <v>0.01787378743220789</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04733275018707516</v>
+        <v>0.04753471050909091</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>287876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281218</v>
+        <v>281768</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291733</v>
+        <v>291737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9799676434989893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9573003601617406</v>
+        <v>0.9591747840660838</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9930971677563392</v>
+        <v>0.9931091257878516</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -5230,19 +5230,19 @@
         <v>277360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267880</v>
+        <v>268097</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283048</v>
+        <v>282682</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9607107105572839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9278744349332808</v>
+        <v>0.928625215946643</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9804108124464816</v>
+        <v>0.9791457627807433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -5251,19 +5251,19 @@
         <v>565236</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>554894</v>
+        <v>554777</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>572457</v>
+        <v>572053</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9704227887066793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9526672498129248</v>
+        <v>0.9524652894909089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9828201714760699</v>
+        <v>0.9821262125677921</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>6953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3025</v>
+        <v>3003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14237</v>
+        <v>13217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01383490401549655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006019194848944046</v>
+        <v>0.005974410526251198</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02832846289185288</v>
+        <v>0.02629771582504304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -5376,19 +5376,19 @@
         <v>15360</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8823</v>
+        <v>8709</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25216</v>
+        <v>25198</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0293649125537398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01686665993567833</v>
+        <v>0.01664963662137978</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04820614129353581</v>
+        <v>0.04817214276113767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -5397,19 +5397,19 @@
         <v>22313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13340</v>
+        <v>14106</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33359</v>
+        <v>33185</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02175517393242108</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01300642276997357</v>
+        <v>0.01375267515486132</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03252488901668477</v>
+        <v>0.03235519367223894</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>495622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>488338</v>
+        <v>489358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499550</v>
+        <v>499572</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9861650959845034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9716715371081471</v>
+        <v>0.973702284174957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.993980805151056</v>
+        <v>0.9940255894737487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>470</v>
@@ -5447,19 +5447,19 @@
         <v>507724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>497868</v>
+        <v>497886</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>514261</v>
+        <v>514375</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9706350874462601</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9517938587064638</v>
+        <v>0.9518278572388614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9831333400643216</v>
+        <v>0.9833503633786201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>938</v>
@@ -5468,19 +5468,19 @@
         <v>1003346</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>992300</v>
+        <v>992474</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1012319</v>
+        <v>1011553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9782448260675789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9674751109833153</v>
+        <v>0.9676448063277611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9869935772300266</v>
+        <v>0.9862473248451387</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>7239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3320</v>
+        <v>3452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13555</v>
+        <v>12720</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02272301674860172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01042117862756046</v>
+        <v>0.0108370203231835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04255053090425708</v>
+        <v>0.03992841419500621</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5593,19 +5593,19 @@
         <v>11265</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5629</v>
+        <v>5887</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19225</v>
+        <v>20227</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03349525081063743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01673775042294982</v>
+        <v>0.01750618173937591</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05716585833906294</v>
+        <v>0.06014403129462102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -5614,19 +5614,19 @@
         <v>18504</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11508</v>
+        <v>11939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27974</v>
+        <v>28208</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02825507221101571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01757324568445086</v>
+        <v>0.0182315108433731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04271609058135675</v>
+        <v>0.04307335202716778</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>311326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305010</v>
+        <v>305845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315245</v>
+        <v>315113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9772769832513982</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9574494690957429</v>
+        <v>0.9600715858049939</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9895788213724396</v>
+        <v>0.9891629796768165</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>322</v>
@@ -5664,19 +5664,19 @@
         <v>325044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>317084</v>
+        <v>316082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330680</v>
+        <v>330422</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9665047491893626</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9428341416609368</v>
+        <v>0.939855968705379</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9832622495770502</v>
+        <v>0.9824938182606241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -5685,19 +5685,19 @@
         <v>636370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626900</v>
+        <v>626666</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643366</v>
+        <v>642935</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9717449277889842</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9572839094186434</v>
+        <v>0.9569266479728317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9824267543155492</v>
+        <v>0.9817684891566267</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>6220</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2720</v>
+        <v>2401</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14000</v>
+        <v>13566</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0168129547478501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007351689435323721</v>
+        <v>0.00649031442310667</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03784097465946658</v>
+        <v>0.03666821549524267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5810,19 +5810,19 @@
         <v>16064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9616</v>
+        <v>9467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25962</v>
+        <v>24834</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04147919486506361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02482998343452049</v>
+        <v>0.02444593231215003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06703642896969407</v>
+        <v>0.06412440381183297</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -5831,19 +5831,19 @@
         <v>22284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13750</v>
+        <v>13272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32944</v>
+        <v>33104</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02942814570203395</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01815751637343719</v>
+        <v>0.01752724881014852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04350453972614983</v>
+        <v>0.04371672397511175</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>363744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355964</v>
+        <v>356398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367244</v>
+        <v>367563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9831870452521499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9621590253405327</v>
+        <v>0.9633317845047572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9926483105646763</v>
+        <v>0.9935096855768921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -5881,19 +5881,19 @@
         <v>371219</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>361321</v>
+        <v>362449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377667</v>
+        <v>377816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9585208051349364</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9329635710303064</v>
+        <v>0.9358755961881672</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9751700165654795</v>
+        <v>0.97555406768785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>691</v>
@@ -5902,19 +5902,19 @@
         <v>734963</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>724303</v>
+        <v>724143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>743497</v>
+        <v>743975</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.970571854297966</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9564954602738501</v>
+        <v>0.9562832760248883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9818424836265628</v>
+        <v>0.9824727511898514</v>
       </c>
     </row>
     <row r="15">
@@ -6019,19 +6019,19 @@
         <v>12730</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6516</v>
+        <v>6710</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22736</v>
+        <v>22119</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05823570451766166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02980845909047713</v>
+        <v>0.03069497130037671</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1040120716195346</v>
+        <v>0.1011915717260443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -6040,19 +6040,19 @@
         <v>12730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7037</v>
+        <v>6701</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22025</v>
+        <v>22706</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02961687077711846</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01637295244021022</v>
+        <v>0.01559023538411074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05124420053377459</v>
+        <v>0.05282842324922426</v>
       </c>
     </row>
     <row r="17">
@@ -6082,19 +6082,19 @@
         <v>205857</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195851</v>
+        <v>196468</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212071</v>
+        <v>211877</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9417642954823383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8959879283804654</v>
+        <v>0.8988084282739557</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9701915409095228</v>
+        <v>0.9693050286996231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>424</v>
@@ -6103,19 +6103,19 @@
         <v>417078</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407783</v>
+        <v>407102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422771</v>
+        <v>423107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9703831292228815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9487557994662256</v>
+        <v>0.9471715767507759</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9836270475597898</v>
+        <v>0.9844097646158894</v>
       </c>
     </row>
     <row r="18">
@@ -6207,19 +6207,19 @@
         <v>5333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1819</v>
+        <v>1984</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11935</v>
+        <v>11200</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02026633658114388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006914504186479932</v>
+        <v>0.00753959851717009</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04535771022922374</v>
+        <v>0.04256449901001353</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6228,19 +6228,19 @@
         <v>13298</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6913</v>
+        <v>7562</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21582</v>
+        <v>22060</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04869018784635527</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0253129434998563</v>
+        <v>0.02768648514408252</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07902265228183016</v>
+        <v>0.08077069755988306</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -6249,19 +6249,19 @@
         <v>18631</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11299</v>
+        <v>10750</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30499</v>
+        <v>28241</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03474308040800551</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02107096641864089</v>
+        <v>0.02004643126427393</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0568759365561914</v>
+        <v>0.05266557210242205</v>
       </c>
     </row>
     <row r="20">
@@ -6278,19 +6278,19 @@
         <v>257790</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251188</v>
+        <v>251923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261304</v>
+        <v>261139</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9797336634188561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9546422897707763</v>
+        <v>0.9574355009899866</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9930854958135202</v>
+        <v>0.9924604014828299</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -6299,19 +6299,19 @@
         <v>259817</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>251533</v>
+        <v>251055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266202</v>
+        <v>265553</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9513098121536447</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9209773477181701</v>
+        <v>0.919229302440117</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.974687056500144</v>
+        <v>0.9723135148559175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>505</v>
@@ -6320,19 +6320,19 @@
         <v>517607</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505739</v>
+        <v>507997</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>524939</v>
+        <v>525488</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9652569195919944</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9431240634438088</v>
+        <v>0.947334427897578</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9789290335813595</v>
+        <v>0.9799535687357264</v>
       </c>
     </row>
     <row r="21">
@@ -6424,19 +6424,19 @@
         <v>9960</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4990</v>
+        <v>5214</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18662</v>
+        <v>18560</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0151695293030269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007600200931908744</v>
+        <v>0.007940719254063309</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02842453788554173</v>
+        <v>0.02826892315673758</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6445,19 +6445,19 @@
         <v>23583</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15345</v>
+        <v>14978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35675</v>
+        <v>34969</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03411388360718601</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02219734216122311</v>
+        <v>0.02166675792333931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05160658773220875</v>
+        <v>0.05058512012887255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -6466,19 +6466,19 @@
         <v>33542</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23045</v>
+        <v>22477</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45410</v>
+        <v>45382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02488581751355161</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01709724266481494</v>
+        <v>0.0166763625311896</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03369045204482785</v>
+        <v>0.03366999349726372</v>
       </c>
     </row>
     <row r="23">
@@ -6495,19 +6495,19 @@
         <v>646598</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637896</v>
+        <v>637998</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>651568</v>
+        <v>651344</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9848304706969732</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9715754621144578</v>
+        <v>0.9717310768432622</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9923997990680912</v>
+        <v>0.9920592807459366</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>625</v>
@@ -6516,19 +6516,19 @@
         <v>667711</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>655619</v>
+        <v>656325</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>675949</v>
+        <v>676316</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.965886116392814</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9483934122677918</v>
+        <v>0.9494148798711275</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.977802657838777</v>
+        <v>0.9783332420766607</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1195</v>
@@ -6537,19 +6537,19 @@
         <v>1314310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1302442</v>
+        <v>1302470</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1324807</v>
+        <v>1325375</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9751141824864484</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.966309547955172</v>
+        <v>0.9663300065027366</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.982902757335185</v>
+        <v>0.9833236374688106</v>
       </c>
     </row>
     <row r="24">
@@ -6641,19 +6641,19 @@
         <v>3606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11109</v>
+        <v>11246</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004631840986182831</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001042018335966474</v>
+        <v>0.00104322266713539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01426862806504551</v>
+        <v>0.01444380412786843</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -6662,19 +6662,19 @@
         <v>30915</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20769</v>
+        <v>21029</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43120</v>
+        <v>45645</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03742019676647928</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02513924728174065</v>
+        <v>0.02545351443901119</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05219293600259418</v>
+        <v>0.05524902434008094</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -6683,19 +6683,19 @@
         <v>34522</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23308</v>
+        <v>23439</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49151</v>
+        <v>48767</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02151213861246589</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01452465047312927</v>
+        <v>0.01460584365702173</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03062830791464102</v>
+        <v>0.03038909095738222</v>
       </c>
     </row>
     <row r="26">
@@ -6712,19 +6712,19 @@
         <v>774977</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>767474</v>
+        <v>767337</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777772</v>
+        <v>777771</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9953681590138171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9857313719349544</v>
+        <v>0.9855561958721322</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9989579816640335</v>
+        <v>0.9989567773328646</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>729</v>
@@ -6733,19 +6733,19 @@
         <v>795252</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>783047</v>
+        <v>780522</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>805398</v>
+        <v>805138</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9625798032335208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9478070639974061</v>
+        <v>0.9447509756599193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9748607527182594</v>
+        <v>0.9745464855609889</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1476</v>
@@ -6754,19 +6754,19 @@
         <v>1570228</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1555599</v>
+        <v>1555983</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1581442</v>
+        <v>1581311</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9784878613875341</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9693716920853587</v>
+        <v>0.9696109090426177</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9854753495268707</v>
+        <v>0.9853941563429782</v>
       </c>
     </row>
     <row r="27">
@@ -6858,19 +6858,19 @@
         <v>45195</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33042</v>
+        <v>32639</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60837</v>
+        <v>59704</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01331484251999249</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009734319762949622</v>
+        <v>0.00961564697355672</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01792295999814707</v>
+        <v>0.01758910417881673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>119</v>
@@ -6879,19 +6879,19 @@
         <v>134558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>111286</v>
+        <v>112294</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>159155</v>
+        <v>162526</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03796198106553473</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03139640932622004</v>
+        <v>0.03168091753870269</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04490138375912393</v>
+        <v>0.04585237790008892</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>165</v>
@@ -6900,19 +6900,19 @@
         <v>179753</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>153773</v>
+        <v>152318</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>208058</v>
+        <v>207850</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0259051542617142</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02216109431042434</v>
+        <v>0.02195138616145598</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02998434932203515</v>
+        <v>0.02995431307291747</v>
       </c>
     </row>
     <row r="29">
@@ -6929,19 +6929,19 @@
         <v>3349155</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3333513</v>
+        <v>3334646</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3361308</v>
+        <v>3361711</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9866851574800075</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.982077040001853</v>
+        <v>0.9824108958211833</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9902656802370504</v>
+        <v>0.9903843530264433</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3219</v>
@@ -6950,19 +6950,19 @@
         <v>3409984</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3385387</v>
+        <v>3382016</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3433256</v>
+        <v>3432248</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9620380189344653</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.955098616240876</v>
+        <v>0.9541476220999113</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9686035906737799</v>
+        <v>0.9683190824612974</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6404</v>
@@ -6971,19 +6971,19 @@
         <v>6759139</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6730834</v>
+        <v>6731042</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6785119</v>
+        <v>6786574</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9740948457382858</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9700156506779648</v>
+        <v>0.9700456869270824</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9778389056895757</v>
+        <v>0.978048613838544</v>
       </c>
     </row>
     <row r="30">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3343</v>
+        <v>3401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00210472748086253</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01048588315369312</v>
+        <v>0.01066567607135442</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -7340,19 +7340,19 @@
         <v>9692</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5883</v>
+        <v>5706</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14743</v>
+        <v>14597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03066377566988944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01861340414459136</v>
+        <v>0.01805362543280194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0466459788075769</v>
+        <v>0.04618484550154534</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -7361,19 +7361,19 @@
         <v>10363</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6643</v>
+        <v>6738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15449</v>
+        <v>16018</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01632162291558425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01046344054933956</v>
+        <v>0.01061302492433199</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02433217468252778</v>
+        <v>0.02522883714647114</v>
       </c>
     </row>
     <row r="5">
@@ -7390,16 +7390,16 @@
         <v>318174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315502</v>
+        <v>315444</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9978952725191373</v>
+        <v>0.9978952725191376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9895141168463067</v>
+        <v>0.9893343239286457</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -7411,19 +7411,19 @@
         <v>306369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301318</v>
+        <v>301464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310178</v>
+        <v>310355</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9693362243301105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.953354021192423</v>
+        <v>0.9538151544984547</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9813865958554084</v>
+        <v>0.9819463745671978</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>849</v>
@@ -7432,19 +7432,19 @@
         <v>624543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>619457</v>
+        <v>618888</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>628263</v>
+        <v>628168</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.983678377084416</v>
+        <v>0.9836783770844157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9756678253174725</v>
+        <v>0.9747711628535288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9895365594506604</v>
+        <v>0.989386975075668</v>
       </c>
     </row>
     <row r="6">
@@ -7536,19 +7536,19 @@
         <v>3613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9940</v>
+        <v>10767</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006822197746598876</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001723762201033145</v>
+        <v>0.001713561337076472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01876660073130014</v>
+        <v>0.02032897191609312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -7557,19 +7557,19 @@
         <v>9667</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5231</v>
+        <v>5353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15472</v>
+        <v>15743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01775856064979191</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009609740044275943</v>
+        <v>0.009834442772201605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02842414769550628</v>
+        <v>0.02892031362127299</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -7578,19 +7578,19 @@
         <v>13280</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7753</v>
+        <v>7890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21257</v>
+        <v>21083</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01236512741112796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007219026979455926</v>
+        <v>0.007346546916913186</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01979269491571691</v>
+        <v>0.01963015468823433</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>526047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>519720</v>
+        <v>518893</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>528747</v>
+        <v>528752</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.993177802253401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9812333992686995</v>
+        <v>0.9796710280839067</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982762377989669</v>
+        <v>0.9982864386629235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>699</v>
@@ -7628,19 +7628,19 @@
         <v>534674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>528869</v>
+        <v>528598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>539110</v>
+        <v>538988</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9822414393502078</v>
+        <v>0.9822414393502082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9715758523044935</v>
+        <v>0.9710796863787269</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9903902599557241</v>
+        <v>0.9901655572277984</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1077</v>
@@ -7649,19 +7649,19 @@
         <v>1060720</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1052743</v>
+        <v>1052917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1066247</v>
+        <v>1066110</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9876348725888721</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9802073050842833</v>
+        <v>0.980369845311766</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9927809730205444</v>
+        <v>0.9926534530830867</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>5514</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2358</v>
+        <v>2507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10031</v>
+        <v>10616</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01747608155696886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007474673722838407</v>
+        <v>0.007946182104362936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03179445040753699</v>
+        <v>0.03364759512918044</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -7774,19 +7774,19 @@
         <v>15984</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10949</v>
+        <v>11075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23441</v>
+        <v>22674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04485201450957915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03072287327612677</v>
+        <v>0.03107735569828109</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06577451871912982</v>
+        <v>0.06362406970532984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -7795,19 +7795,19 @@
         <v>21498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15564</v>
+        <v>15500</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30311</v>
+        <v>29405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03199694099693042</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0231645532488072</v>
+        <v>0.02306977452094368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04511337977488485</v>
+        <v>0.04376506827475333</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>309984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305467</v>
+        <v>304882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313140</v>
+        <v>312991</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9825239184430311</v>
+        <v>0.9825239184430313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9682055495924631</v>
+        <v>0.9663524048708195</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9925253262771615</v>
+        <v>0.9920538178956373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>508</v>
@@ -7845,19 +7845,19 @@
         <v>340397</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332940</v>
+        <v>333707</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>345432</v>
+        <v>345306</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9551479854904209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9342254812808702</v>
+        <v>0.9363759302946703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9692771267238741</v>
+        <v>0.9689226443017187</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>859</v>
@@ -7866,19 +7866,19 @@
         <v>650382</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>641569</v>
+        <v>642475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>656316</v>
+        <v>656380</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9680030590030694</v>
+        <v>0.9680030590030696</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9548866202251153</v>
+        <v>0.9562349317252464</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9768354467511928</v>
+        <v>0.9769302254790563</v>
       </c>
     </row>
     <row r="12">
@@ -7970,19 +7970,19 @@
         <v>11091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5715</v>
+        <v>5249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21767</v>
+        <v>20632</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02972236198629881</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01531451074903795</v>
+        <v>0.01406805450189675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05833309169849598</v>
+        <v>0.05529176581117949</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -7991,19 +7991,19 @@
         <v>20598</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14397</v>
+        <v>14011</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32287</v>
+        <v>31792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0488538618439307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03414487707983805</v>
+        <v>0.03323129222824665</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07657583463484333</v>
+        <v>0.07540188349030615</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -8012,19 +8012,19 @@
         <v>31689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21678</v>
+        <v>22474</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43533</v>
+        <v>44978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03987166672805505</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02727576565018507</v>
+        <v>0.02827655687936605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05477425529700524</v>
+        <v>0.05659149453123351</v>
       </c>
     </row>
     <row r="14">
@@ -8041,19 +8041,19 @@
         <v>362054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351378</v>
+        <v>352513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367430</v>
+        <v>367896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9702776380137013</v>
+        <v>0.9702776380137011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.941666908301504</v>
+        <v>0.9447082341888204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9846854892509621</v>
+        <v>0.9859319454981034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>564</v>
@@ -8062,19 +8062,19 @@
         <v>401032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>389343</v>
+        <v>389838</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>407233</v>
+        <v>407619</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9511461381560694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.923424165365157</v>
+        <v>0.9245981165096937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9658551229201633</v>
+        <v>0.9667687077717533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>845</v>
@@ -8083,19 +8083,19 @@
         <v>763086</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>751242</v>
+        <v>749797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>773097</v>
+        <v>772301</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.960128333271945</v>
+        <v>0.9601283332719449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9452257447029947</v>
+        <v>0.9434085054687665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9727242343498149</v>
+        <v>0.9717234431206337</v>
       </c>
     </row>
     <row r="15">
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4324</v>
+        <v>3599</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005844480761898209</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02102384547677202</v>
+        <v>0.01749796125475261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -8208,19 +8208,19 @@
         <v>7902</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4663</v>
+        <v>4888</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11633</v>
+        <v>11598</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03477885830211433</v>
+        <v>0.03477885830211432</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02052226424625523</v>
+        <v>0.0215140075935031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05119912744010584</v>
+        <v>0.05104415663887246</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -8229,19 +8229,19 @@
         <v>9104</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5955</v>
+        <v>5857</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13780</v>
+        <v>13646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02103188759817612</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01375747736013953</v>
+        <v>0.01353132711535368</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03183328212387171</v>
+        <v>0.03152327746071251</v>
       </c>
     </row>
     <row r="17">
@@ -8258,16 +8258,16 @@
         <v>204463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201341</v>
+        <v>202066</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9941555192381016</v>
+        <v>0.9941555192381019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9789761545232284</v>
+        <v>0.9825020387452472</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8279,19 +8279,19 @@
         <v>219313</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215582</v>
+        <v>215617</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222552</v>
+        <v>222327</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9652211416978859</v>
+        <v>0.9652211416978856</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9488008725598942</v>
+        <v>0.9489558433611278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9794777357537449</v>
+        <v>0.978485992406497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>748</v>
@@ -8300,19 +8300,19 @@
         <v>423775</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419099</v>
+        <v>419233</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426924</v>
+        <v>427022</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.978968112401824</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9681667178761282</v>
+        <v>0.9684767225392875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9862425226398605</v>
+        <v>0.9864686728846463</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>6770</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3706</v>
+        <v>3528</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11530</v>
+        <v>11781</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02500705472055541</v>
+        <v>0.0250070547205554</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01369132184507553</v>
+        <v>0.01303429276503588</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0425915143316118</v>
+        <v>0.04351857033809076</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -8425,19 +8425,19 @@
         <v>14295</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9705</v>
+        <v>9948</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19766</v>
+        <v>19843</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05420049676644657</v>
+        <v>0.05420049676644655</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03679551549414383</v>
+        <v>0.03771869019383686</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07494028634705174</v>
+        <v>0.07523328614063979</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -8446,19 +8446,19 @@
         <v>21065</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15567</v>
+        <v>15811</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27878</v>
+        <v>28431</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03941377959214871</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02912603522619813</v>
+        <v>0.02958409876577973</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05216158062534717</v>
+        <v>0.05319518775873715</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>263937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259177</v>
+        <v>258926</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267001</v>
+        <v>267179</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9749929452794447</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9574084856683879</v>
+        <v>0.9564814296619089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9863086781549243</v>
+        <v>0.986965707234964</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>429</v>
@@ -8496,19 +8496,19 @@
         <v>249455</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243984</v>
+        <v>243907</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254045</v>
+        <v>253802</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9457995032335536</v>
+        <v>0.9457995032335532</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9250597136529483</v>
+        <v>0.9247667138593603</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9632044845058564</v>
+        <v>0.962281309806163</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>787</v>
@@ -8517,19 +8517,19 @@
         <v>513392</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506579</v>
+        <v>506026</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518890</v>
+        <v>518646</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9605862204078514</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9478384193746529</v>
+        <v>0.9468048122412628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9708739647738018</v>
+        <v>0.9704159012342202</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>15619</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9250</v>
+        <v>8943</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24818</v>
+        <v>25914</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02172681701603915</v>
+        <v>0.02172681701603916</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01286731286497379</v>
+        <v>0.01243964937918638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03452266131908847</v>
+        <v>0.03604777618045502</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -8642,19 +8642,19 @@
         <v>36737</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27727</v>
+        <v>27948</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46986</v>
+        <v>47509</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04758358009093887</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03591372630216097</v>
+        <v>0.03619955537499355</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06085827490330274</v>
+        <v>0.06153582953200359</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -8663,19 +8663,19 @@
         <v>52356</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40812</v>
+        <v>40210</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66083</v>
+        <v>65344</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03511634158484503</v>
+        <v>0.03511634158484504</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02737346666991674</v>
+        <v>0.02696942608949199</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04432316234453456</v>
+        <v>0.04382734997919509</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>703258</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>694059</v>
+        <v>692963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>709627</v>
+        <v>709934</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9782731829839607</v>
+        <v>0.9782731829839609</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9654773386809116</v>
+        <v>0.9639522238195446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9871326871350261</v>
+        <v>0.9875603506208135</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>908</v>
@@ -8713,19 +8713,19 @@
         <v>735320</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>725071</v>
+        <v>724548</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>744330</v>
+        <v>744109</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.952416419909061</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9391417250966974</v>
+        <v>0.9384641704679965</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9640862736978391</v>
+        <v>0.9638004446250065</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1490</v>
@@ -8734,19 +8734,19 @@
         <v>1438578</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1424851</v>
+        <v>1425590</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1450122</v>
+        <v>1450724</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.964883658415155</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9556768376554656</v>
+        <v>0.9561726500208051</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9726265333300834</v>
+        <v>0.9730305739105081</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>21321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14434</v>
+        <v>14346</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30287</v>
+        <v>30587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02671537507450027</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01808546334229278</v>
+        <v>0.01797525279457965</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03794993432952371</v>
+        <v>0.03832643772451788</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>135</v>
@@ -8859,19 +8859,19 @@
         <v>88859</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>75575</v>
+        <v>74393</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105247</v>
+        <v>104499</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1070585718136345</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09105377831047959</v>
+        <v>0.08963006627991019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.126802229475392</v>
+        <v>0.1259012553960653</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -8880,19 +8880,19 @@
         <v>110180</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>94161</v>
+        <v>93479</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>129680</v>
+        <v>127334</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06767491433320559</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05783572452339515</v>
+        <v>0.05741705345246902</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07965231747229633</v>
+        <v>0.07821140409120557</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>776751</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>767785</v>
+        <v>767485</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>783638</v>
+        <v>783726</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9732846249254997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9620500656704766</v>
+        <v>0.9616735622754821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9819145366577072</v>
+        <v>0.9820247472054203</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>925</v>
@@ -8930,19 +8930,19 @@
         <v>741147</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>724759</v>
+        <v>725507</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>754431</v>
+        <v>755613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8929414281863656</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.873197770524608</v>
+        <v>0.8740987446039348</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9089462216895202</v>
+        <v>0.9103699337200898</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1660</v>
@@ -8951,19 +8951,19 @@
         <v>1517898</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1498398</v>
+        <v>1500744</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1533917</v>
+        <v>1534599</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9323250856667944</v>
+        <v>0.9323250856667946</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9203476825277039</v>
+        <v>0.9217885959087945</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.942164275476605</v>
+        <v>0.9425829465475312</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>65800</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52475</v>
+        <v>51807</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80881</v>
+        <v>81109</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01863781850210536</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01486334504150083</v>
+        <v>0.01467415717595197</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.022909498985676</v>
+        <v>0.02297407558477227</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>335</v>
@@ -9076,19 +9076,19 @@
         <v>203735</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>180315</v>
+        <v>181035</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>225273</v>
+        <v>227771</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05459958888203455</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04832328794271163</v>
+        <v>0.04851603351319984</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06037150712013913</v>
+        <v>0.061040983089649</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>416</v>
@@ -9097,19 +9097,19 @@
         <v>269535</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>243930</v>
+        <v>243640</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>297279</v>
+        <v>296967</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.037116320479046</v>
+        <v>0.03711632047904599</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03359035837087793</v>
+        <v>0.03355042487460858</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04093673179298146</v>
+        <v>0.04089374532262288</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>3464669</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3449588</v>
+        <v>3449360</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3477994</v>
+        <v>3478662</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9813621814978946</v>
+        <v>0.9813621814978944</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9770905010143235</v>
+        <v>0.9770259244152276</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9851366549584991</v>
+        <v>0.9853258428240479</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5023</v>
@@ -9147,19 +9147,19 @@
         <v>3527706</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3506168</v>
+        <v>3503670</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3551126</v>
+        <v>3550406</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9454004111179656</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9396284928798608</v>
+        <v>0.9389590169103507</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9516767120572885</v>
+        <v>0.9514839664868001</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8315</v>
@@ -9168,19 +9168,19 @@
         <v>6992375</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6964631</v>
+        <v>6964943</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7017980</v>
+        <v>7018270</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9628836795209542</v>
+        <v>0.9628836795209539</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9590632682070186</v>
+        <v>0.9591062546773766</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9664096416291222</v>
+        <v>0.9664495751253915</v>
       </c>
     </row>
     <row r="30">
